--- a/files/template.xlsx
+++ b/files/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jryan\Documents\R\projects\dirt-data-reports\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A495E8E-4624-44E1-8632-B696EB75C332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9550DAD-C9D3-46DE-BB2A-F6F42DCA319A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-96" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
@@ -2022,6 +2022,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">    • Texture must be included in all datasets. The texture triangle used in the reports uses the USDA NRCS textural classification.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">    • </t>
     </r>
@@ -2065,11 +2068,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> are optional but must be provided in decimal form. If not included, no map will appear in the report. Latitude must be between -90 and 90. Longitude must be between -180 and 180.</t>
+      <t xml:space="preserve"> must be provided in decimal form.  Latitude must be between -90 and 90. Longitude must be between -180 and 180. Providing these coordinates is optional - if not included, no map will appear in the report.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">    • Texture must be included in all datasets. The texture triangle used in the reports uses the USDA NRCS textural classification.</t>
   </si>
 </sst>
 </file>
@@ -2143,7 +2143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2157,8 +2157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2549,9 +2548,9 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -2561,7 +2560,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
@@ -2673,7 +2672,7 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -2682,16 +2681,16 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -15035,7 +15034,7 @@
       <c r="C1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>126</v>
       </c>
     </row>
